--- a/css-html-sql.xlsx
+++ b/css-html-sql.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githup\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>CSS</t>
   </si>
@@ -1727,6 +1727,9 @@
   <si>
     <t>index
 -Giúp truy vấn nhanh hơn</t>
+  </si>
+  <si>
+    <t>PHP</t>
   </si>
 </sst>
 </file>
@@ -2171,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,9 +2190,11 @@
     <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="67.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2214,8 +2219,14 @@
       <c r="K1" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2229,7 +2240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2243,7 +2254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2268,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2285,7 +2296,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2299,7 +2310,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -2327,7 +2338,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2341,7 +2352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2355,7 +2366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -2369,7 +2380,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -2383,7 +2394,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -2397,7 +2408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -2411,7 +2422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="345" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
